--- a/quora_data.xlsx
+++ b/quora_data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11114"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sushanta/Documents/GitHub/Illinois/CS410/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sushanta/Documents/GitHub/Illinois/CS410/Project Submission/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF3AB9CC-0A39-644E-BD28-C47D4D366110}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D3146BA-F0F8-6F48-811E-9AC5919A9E59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3540" yWindow="5900" windowWidth="43240" windowHeight="16940" xr2:uid="{6668A529-778F-B14E-B85A-55495CF96BE8}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="85">
   <si>
     <t>https://www.quora.com/What-is-it-like-to-study-computer-science-at-UIUC</t>
   </si>
@@ -814,8 +814,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A24C4472-6B51-9645-95E5-45B15FC67D30}">
   <dimension ref="A1:D57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B53" workbookViewId="0">
-      <selection activeCell="D58" sqref="D58"/>
+    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
+      <selection activeCell="C44" sqref="C44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1330,7 +1330,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:4" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>56</v>
       </c>
@@ -1429,71 +1429,197 @@
       </c>
     </row>
     <row r="44" spans="1:4" ht="272" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>68</v>
+      </c>
+      <c r="B44" t="s">
+        <v>62</v>
+      </c>
+      <c r="C44" t="s">
+        <v>69</v>
+      </c>
       <c r="D44" s="1" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="306" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>68</v>
+      </c>
+      <c r="B45" t="s">
+        <v>62</v>
+      </c>
+      <c r="C45" t="s">
+        <v>69</v>
+      </c>
       <c r="D45" s="1" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>68</v>
+      </c>
+      <c r="B46" t="s">
+        <v>62</v>
+      </c>
+      <c r="C46" t="s">
+        <v>69</v>
+      </c>
       <c r="D46" s="1" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="102" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>68</v>
+      </c>
+      <c r="B47" t="s">
+        <v>62</v>
+      </c>
+      <c r="C47" t="s">
+        <v>69</v>
+      </c>
       <c r="D47" s="1" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="153" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>68</v>
+      </c>
+      <c r="B48" t="s">
+        <v>62</v>
+      </c>
+      <c r="C48" t="s">
+        <v>69</v>
+      </c>
       <c r="D48" s="1" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="49" spans="4:4" ht="102" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:4" ht="102" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>68</v>
+      </c>
+      <c r="B49" t="s">
+        <v>62</v>
+      </c>
+      <c r="C49" t="s">
+        <v>69</v>
+      </c>
       <c r="D49" s="1" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="50" spans="4:4" ht="51" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:4" ht="51" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>68</v>
+      </c>
+      <c r="B50" t="s">
+        <v>62</v>
+      </c>
+      <c r="C50" t="s">
+        <v>69</v>
+      </c>
       <c r="D50" s="1" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="51" spans="4:4" ht="85" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:4" ht="85" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>68</v>
+      </c>
+      <c r="B51" t="s">
+        <v>62</v>
+      </c>
+      <c r="C51" t="s">
+        <v>69</v>
+      </c>
       <c r="D51" s="1" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="52" spans="4:4" ht="255" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:4" ht="255" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>68</v>
+      </c>
+      <c r="B52" t="s">
+        <v>62</v>
+      </c>
+      <c r="C52" t="s">
+        <v>69</v>
+      </c>
       <c r="D52" s="1" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="53" spans="4:4" ht="119" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:4" ht="119" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>68</v>
+      </c>
+      <c r="B53" t="s">
+        <v>62</v>
+      </c>
+      <c r="C53" t="s">
+        <v>69</v>
+      </c>
       <c r="D53" s="1" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="54" spans="4:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>68</v>
+      </c>
+      <c r="B54" t="s">
+        <v>62</v>
+      </c>
+      <c r="C54" t="s">
+        <v>69</v>
+      </c>
       <c r="D54" s="1" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="55" spans="4:4" ht="68" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:4" ht="68" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>68</v>
+      </c>
+      <c r="B55" t="s">
+        <v>62</v>
+      </c>
+      <c r="C55" t="s">
+        <v>69</v>
+      </c>
       <c r="D55" s="1" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="56" spans="4:4" ht="102" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:4" ht="102" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>68</v>
+      </c>
+      <c r="B56" t="s">
+        <v>62</v>
+      </c>
+      <c r="C56" t="s">
+        <v>69</v>
+      </c>
       <c r="D56" s="1" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="57" spans="4:4" ht="306" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:4" ht="306" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>68</v>
+      </c>
+      <c r="B57" t="s">
+        <v>62</v>
+      </c>
+      <c r="C57" t="s">
+        <v>69</v>
+      </c>
       <c r="D57" s="1" t="s">
         <v>84</v>
       </c>
